--- a/dataanalysis/data/predictions/1200/09031158_1159.xlsx
+++ b/dataanalysis/data/predictions/1200/09031158_1159.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-03</t>
   </si>
   <si>
@@ -383,12 +386,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -746,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,19 +852,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>2.09</v>
@@ -885,7 +885,7 @@
         <v>168694.05</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -926,8 +926,23 @@
       <c r="W2">
         <v>0.92</v>
       </c>
+      <c r="X2">
+        <v>2.92</v>
+      </c>
+      <c r="Y2">
+        <v>23.8</v>
+      </c>
+      <c r="Z2">
+        <v>13.06</v>
+      </c>
       <c r="AC2" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -935,22 +950,25 @@
       <c r="AG2">
         <v>5.451655387878418</v>
       </c>
-      <c r="AH2" t="s">
-        <v>123</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>12.67</v>
@@ -968,7 +986,7 @@
         <v>131307.16</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1009,8 +1027,23 @@
       <c r="W3">
         <v>-0.06</v>
       </c>
+      <c r="X3">
+        <v>-5.1</v>
+      </c>
+      <c r="Y3">
+        <v>20.19</v>
+      </c>
+      <c r="Z3">
+        <v>9.67</v>
+      </c>
       <c r="AC3" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1018,22 +1051,25 @@
       <c r="AG3">
         <v>5.03143835067749</v>
       </c>
-      <c r="AH3" t="s">
-        <v>123</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300237</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-6.15</v>
@@ -1051,7 +1087,7 @@
         <v>58668.99</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1092,8 +1128,23 @@
       <c r="W4">
         <v>-1.12</v>
       </c>
+      <c r="X4">
+        <v>-4.79</v>
+      </c>
+      <c r="Y4">
+        <v>3.45</v>
+      </c>
+      <c r="Z4">
+        <v>2.68</v>
+      </c>
       <c r="AC4" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1101,22 +1152,25 @@
       <c r="AG4">
         <v>4.149633884429932</v>
       </c>
-      <c r="AH4" t="s">
-        <v>123</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300260</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>5.33</v>
@@ -1134,7 +1188,7 @@
         <v>210829.03</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1175,8 +1229,23 @@
       <c r="W5">
         <v>-0.16</v>
       </c>
+      <c r="X5">
+        <v>-13.42</v>
+      </c>
+      <c r="Y5">
+        <v>41.86</v>
+      </c>
+      <c r="Z5">
+        <v>-2.88</v>
+      </c>
       <c r="AC5" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1184,22 +1253,25 @@
       <c r="AG5">
         <v>18.9222412109375</v>
       </c>
-      <c r="AH5" t="s">
-        <v>123</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300308</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.35</v>
@@ -1217,7 +1289,7 @@
         <v>1694633.68</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>37</v>
@@ -1258,8 +1330,23 @@
       <c r="W6">
         <v>0.14</v>
       </c>
+      <c r="X6">
+        <v>-13.39</v>
+      </c>
+      <c r="Y6">
+        <v>448</v>
+      </c>
+      <c r="Z6">
+        <v>12.89</v>
+      </c>
       <c r="AC6" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1267,22 +1354,25 @@
       <c r="AG6">
         <v>-12.13999843597412</v>
       </c>
-      <c r="AH6" t="s">
-        <v>123</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300324</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-2.55</v>
@@ -1300,7 +1390,7 @@
         <v>221843.56</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7">
         <v>11</v>
@@ -1341,8 +1431,23 @@
       <c r="W7">
         <v>-0.68</v>
       </c>
+      <c r="X7">
+        <v>-10.73</v>
+      </c>
+      <c r="Y7">
+        <v>7.42</v>
+      </c>
+      <c r="Z7">
+        <v>-2.88</v>
+      </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1350,22 +1455,25 @@
       <c r="AG7">
         <v>5.334431171417236</v>
       </c>
-      <c r="AH7" t="s">
-        <v>123</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300363</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>7.44</v>
@@ -1383,7 +1491,7 @@
         <v>127492.36</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1424,8 +1532,23 @@
       <c r="W8">
         <v>0.4</v>
       </c>
+      <c r="X8">
+        <v>-7.41</v>
+      </c>
+      <c r="Y8">
+        <v>26.99</v>
+      </c>
+      <c r="Z8">
+        <v>0.97</v>
+      </c>
       <c r="AC8" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1433,22 +1556,25 @@
       <c r="AG8">
         <v>3.704692602157593</v>
       </c>
-      <c r="AH8" t="s">
-        <v>123</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300389</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-7.17</v>
@@ -1466,7 +1592,7 @@
         <v>26519.6</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1507,8 +1633,23 @@
       <c r="W9">
         <v>-0.21</v>
       </c>
+      <c r="X9">
+        <v>-2.3</v>
+      </c>
+      <c r="Y9">
+        <v>15.55</v>
+      </c>
+      <c r="Z9">
+        <v>0.97</v>
+      </c>
       <c r="AC9" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1516,22 +1657,25 @@
       <c r="AG9">
         <v>1.775848150253296</v>
       </c>
-      <c r="AH9" t="s">
-        <v>123</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300394</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-2.11</v>
@@ -1549,7 +1693,7 @@
         <v>659961.7</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>27</v>
@@ -1590,8 +1734,23 @@
       <c r="W10">
         <v>-0.15</v>
       </c>
+      <c r="X10">
+        <v>-15.42</v>
+      </c>
+      <c r="Y10">
+        <v>208</v>
+      </c>
+      <c r="Z10">
+        <v>6.68</v>
+      </c>
       <c r="AC10" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1599,22 +1758,25 @@
       <c r="AG10">
         <v>-5.773143768310547</v>
       </c>
-      <c r="AH10" t="s">
-        <v>123</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300418</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.9</v>
@@ -1632,7 +1794,7 @@
         <v>399070.95</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1673,8 +1835,23 @@
       <c r="W11">
         <v>0.22</v>
       </c>
+      <c r="X11">
+        <v>2.91</v>
+      </c>
+      <c r="Y11">
+        <v>45.2</v>
+      </c>
+      <c r="Z11">
+        <v>3.06</v>
+      </c>
       <c r="AC11" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1682,22 +1859,25 @@
       <c r="AG11">
         <v>14.21862983703613</v>
       </c>
-      <c r="AH11" t="s">
-        <v>123</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300450</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.37</v>
@@ -1715,7 +1895,7 @@
         <v>638006.73</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1756,8 +1936,23 @@
       <c r="W12">
         <v>-0.21</v>
       </c>
+      <c r="X12">
+        <v>1.98</v>
+      </c>
+      <c r="Y12">
+        <v>47.68</v>
+      </c>
+      <c r="Z12">
+        <v>8.460000000000001</v>
+      </c>
       <c r="AC12" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1765,22 +1960,25 @@
       <c r="AG12">
         <v>8.234728813171387</v>
       </c>
-      <c r="AH12" t="s">
-        <v>123</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300457</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>5.05</v>
@@ -1798,7 +1996,7 @@
         <v>165982.21</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1839,8 +2037,23 @@
       <c r="W13">
         <v>0.18</v>
       </c>
+      <c r="X13">
+        <v>1.09</v>
+      </c>
+      <c r="Y13">
+        <v>29.14</v>
+      </c>
+      <c r="Z13">
+        <v>3.77</v>
+      </c>
       <c r="AC13" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1848,22 +2061,25 @@
       <c r="AG13">
         <v>4.752124786376953</v>
       </c>
-      <c r="AH13" t="s">
-        <v>123</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300465</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-6.35</v>
@@ -1881,7 +2097,7 @@
         <v>143138.11</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -1922,8 +2138,23 @@
       <c r="W14">
         <v>-1.36</v>
       </c>
+      <c r="X14">
+        <v>-4.01</v>
+      </c>
+      <c r="Y14">
+        <v>26.19</v>
+      </c>
+      <c r="Z14">
+        <v>3.23</v>
+      </c>
       <c r="AC14" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1931,22 +2162,25 @@
       <c r="AG14">
         <v>5.80927848815918</v>
       </c>
-      <c r="AH14" t="s">
-        <v>123</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>13.98</v>
@@ -1964,7 +2198,7 @@
         <v>111820.67</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -2005,8 +2239,23 @@
       <c r="W15">
         <v>0.11</v>
       </c>
+      <c r="X15">
+        <v>-4.65</v>
+      </c>
+      <c r="Y15">
+        <v>67.86</v>
+      </c>
+      <c r="Z15">
+        <v>-0.93</v>
+      </c>
       <c r="AC15" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2014,22 +2263,25 @@
       <c r="AG15">
         <v>-0.9869460463523865</v>
       </c>
-      <c r="AH15" t="s">
-        <v>123</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300475</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.84</v>
@@ -2047,7 +2299,7 @@
         <v>72814.92</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2088,8 +2340,23 @@
       <c r="W16">
         <v>0.24</v>
       </c>
+      <c r="X16">
+        <v>-9.619999999999999</v>
+      </c>
+      <c r="Y16">
+        <v>43.99</v>
+      </c>
+      <c r="Z16">
+        <v>-0.7</v>
+      </c>
       <c r="AC16" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2097,22 +2364,25 @@
       <c r="AG16">
         <v>2.578445196151733</v>
       </c>
-      <c r="AH16" t="s">
-        <v>123</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300476</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-3.23</v>
@@ -2130,7 +2400,7 @@
         <v>901526.4300000001</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17">
         <v>61</v>
@@ -2171,8 +2441,23 @@
       <c r="W17">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X17">
+        <v>-8.81</v>
+      </c>
+      <c r="Y17">
+        <v>288</v>
+      </c>
+      <c r="Z17">
+        <v>10.03</v>
+      </c>
       <c r="AC17" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2180,22 +2465,25 @@
       <c r="AG17">
         <v>-2.054030895233154</v>
       </c>
-      <c r="AH17" t="s">
-        <v>123</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300486</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>11.44</v>
@@ -2213,7 +2501,7 @@
         <v>178519.91</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18">
         <v>11</v>
@@ -2254,8 +2542,23 @@
       <c r="W18">
         <v>0.59</v>
       </c>
+      <c r="X18">
+        <v>2.15</v>
+      </c>
+      <c r="Y18">
+        <v>28.9</v>
+      </c>
+      <c r="Z18">
+        <v>9.470000000000001</v>
+      </c>
       <c r="AC18" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2263,22 +2566,25 @@
       <c r="AG18">
         <v>6.172064781188965</v>
       </c>
-      <c r="AH18" t="s">
-        <v>123</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300491</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-1.68</v>
@@ -2296,7 +2602,7 @@
         <v>31772.57</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2337,8 +2643,23 @@
       <c r="W19">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X19">
+        <v>-6.96</v>
+      </c>
+      <c r="Y19">
+        <v>38</v>
+      </c>
+      <c r="Z19">
+        <v>2.9</v>
+      </c>
       <c r="AC19" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2346,22 +2667,25 @@
       <c r="AG19">
         <v>2.880135059356689</v>
       </c>
-      <c r="AH19" t="s">
-        <v>123</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300496</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>3.9</v>
@@ -2379,7 +2703,7 @@
         <v>239219.2</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2420,8 +2744,23 @@
       <c r="W20">
         <v>0.33</v>
       </c>
+      <c r="X20">
+        <v>-3.91</v>
+      </c>
+      <c r="Y20">
+        <v>77.25</v>
+      </c>
+      <c r="Z20">
+        <v>-0.04</v>
+      </c>
       <c r="AC20" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2429,22 +2768,25 @@
       <c r="AG20">
         <v>3.284080743789673</v>
       </c>
-      <c r="AH20" t="s">
-        <v>123</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300502</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.42</v>
@@ -2462,7 +2804,7 @@
         <v>1506916.25</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>51</v>
@@ -2503,8 +2845,23 @@
       <c r="W21">
         <v>-0.19</v>
       </c>
+      <c r="X21">
+        <v>-15.58</v>
+      </c>
+      <c r="Y21">
+        <v>393.71</v>
+      </c>
+      <c r="Z21">
+        <v>11.5</v>
+      </c>
       <c r="AC21" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2512,22 +2869,25 @@
       <c r="AG21">
         <v>0.2936599254608154</v>
       </c>
-      <c r="AH21" t="s">
-        <v>123</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300548</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2.75</v>
@@ -2545,7 +2905,7 @@
         <v>221879.91</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2586,8 +2946,23 @@
       <c r="W22">
         <v>0.3</v>
       </c>
+      <c r="X22">
+        <v>-12.36</v>
+      </c>
+      <c r="Y22">
+        <v>144</v>
+      </c>
+      <c r="Z22">
+        <v>7.54</v>
+      </c>
       <c r="AC22" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2595,22 +2970,25 @@
       <c r="AG22">
         <v>34.50912094116211</v>
       </c>
-      <c r="AH22" t="s">
-        <v>123</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300573</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-2.27</v>
@@ -2628,7 +3006,7 @@
         <v>103152.47</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2669,8 +3047,23 @@
       <c r="W23">
         <v>-0.31</v>
       </c>
+      <c r="X23">
+        <v>-4.09</v>
+      </c>
+      <c r="Y23">
+        <v>76.37</v>
+      </c>
+      <c r="Z23">
+        <v>2.06</v>
+      </c>
       <c r="AC23" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2678,22 +3071,25 @@
       <c r="AG23">
         <v>-10.67366981506348</v>
       </c>
-      <c r="AH23" t="s">
-        <v>123</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300584</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3.49</v>
@@ -2711,7 +3107,7 @@
         <v>55542.63</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24">
         <v>17</v>
@@ -2752,8 +3148,23 @@
       <c r="W24">
         <v>-0.39</v>
       </c>
+      <c r="X24">
+        <v>-4.63</v>
+      </c>
+      <c r="Y24">
+        <v>69</v>
+      </c>
+      <c r="Z24">
+        <v>4.39</v>
+      </c>
       <c r="AC24" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2761,22 +3172,25 @@
       <c r="AG24">
         <v>-1.443244934082031</v>
       </c>
-      <c r="AH24" t="s">
-        <v>123</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300604</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.61</v>
@@ -2794,7 +3208,7 @@
         <v>168087.96</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2835,8 +3249,23 @@
       <c r="W25">
         <v>-0.05</v>
       </c>
+      <c r="X25">
+        <v>-8.76</v>
+      </c>
+      <c r="Y25">
+        <v>60.3</v>
+      </c>
+      <c r="Z25">
+        <v>1.74</v>
+      </c>
       <c r="AC25" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2844,22 +3273,25 @@
       <c r="AG25">
         <v>3.151794910430908</v>
       </c>
-      <c r="AH25" t="s">
-        <v>123</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300620</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>5.55</v>
@@ -2877,7 +3309,7 @@
         <v>231899.29</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26">
         <v>17</v>
@@ -2918,8 +3350,23 @@
       <c r="W26">
         <v>0.09</v>
       </c>
+      <c r="X26">
+        <v>-11.56</v>
+      </c>
+      <c r="Y26">
+        <v>116.8</v>
+      </c>
+      <c r="Z26">
+        <v>10.45</v>
+      </c>
       <c r="AC26" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2927,22 +3374,25 @@
       <c r="AG26">
         <v>5.536201953887939</v>
       </c>
-      <c r="AH26" t="s">
-        <v>123</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300724</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.54</v>
@@ -2960,7 +3410,7 @@
         <v>260513.89</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -3001,8 +3451,23 @@
       <c r="W27">
         <v>-0.12</v>
       </c>
+      <c r="X27">
+        <v>-10.34</v>
+      </c>
+      <c r="Y27">
+        <v>118.93</v>
+      </c>
+      <c r="Z27">
+        <v>8.220000000000001</v>
+      </c>
       <c r="AC27" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3010,22 +3475,25 @@
       <c r="AG27">
         <v>0.995927095413208</v>
       </c>
-      <c r="AH27" t="s">
-        <v>123</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300790</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.68</v>
@@ -3043,7 +3511,7 @@
         <v>51394.23</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3084,8 +3552,23 @@
       <c r="W28">
         <v>0.11</v>
       </c>
+      <c r="X28">
+        <v>-9.66</v>
+      </c>
+      <c r="Y28">
+        <v>32.6</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
       <c r="AC28" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3093,22 +3576,25 @@
       <c r="AG28">
         <v>7.646805286407471</v>
       </c>
-      <c r="AH28" t="s">
-        <v>124</v>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300797</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-4.74</v>
@@ -3126,7 +3612,7 @@
         <v>38455.55</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -3167,8 +3653,23 @@
       <c r="W29">
         <v>-0.09</v>
       </c>
+      <c r="X29">
+        <v>-4.6</v>
+      </c>
+      <c r="Y29">
+        <v>18.43</v>
+      </c>
+      <c r="Z29">
+        <v>-1.29</v>
+      </c>
       <c r="AC29" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3176,22 +3677,25 @@
       <c r="AG29">
         <v>2.881766557693481</v>
       </c>
-      <c r="AH29" t="s">
-        <v>123</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300953</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.9</v>
@@ -3209,7 +3713,7 @@
         <v>161874.29</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3250,8 +3754,23 @@
       <c r="W30">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X30">
+        <v>-6.42</v>
+      </c>
+      <c r="Y30">
+        <v>157.81</v>
+      </c>
+      <c r="Z30">
+        <v>1.51</v>
+      </c>
       <c r="AC30" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3259,22 +3778,25 @@
       <c r="AG30">
         <v>25.10090255737305</v>
       </c>
-      <c r="AH30" t="s">
-        <v>123</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301008</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-4.59</v>
@@ -3292,7 +3814,7 @@
         <v>32822.9</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3333,8 +3855,23 @@
       <c r="W31">
         <v>-0.01</v>
       </c>
+      <c r="X31">
+        <v>0.38</v>
+      </c>
+      <c r="Y31">
+        <v>36.28</v>
+      </c>
+      <c r="Z31">
+        <v>7.75</v>
+      </c>
       <c r="AC31" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3342,22 +3879,25 @@
       <c r="AG31">
         <v>3.990297079086304</v>
       </c>
-      <c r="AH31" t="s">
-        <v>123</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301183</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.55</v>
@@ -3375,7 +3915,7 @@
         <v>59642.94</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K32">
         <v>12</v>
@@ -3416,8 +3956,23 @@
       <c r="W32">
         <v>-0.57</v>
       </c>
+      <c r="X32">
+        <v>-10.06</v>
+      </c>
+      <c r="Y32">
+        <v>106</v>
+      </c>
+      <c r="Z32">
+        <v>2.8</v>
+      </c>
       <c r="AC32" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3425,22 +3980,25 @@
       <c r="AG32">
         <v>4.373481750488281</v>
       </c>
-      <c r="AH32" t="s">
-        <v>123</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301312</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>6.02</v>
@@ -3458,7 +4016,7 @@
         <v>49234.66</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K33">
         <v>18</v>
@@ -3499,8 +4057,23 @@
       <c r="W33">
         <v>0.82</v>
       </c>
+      <c r="X33">
+        <v>-0.38</v>
+      </c>
+      <c r="Y33">
+        <v>65.5</v>
+      </c>
+      <c r="Z33">
+        <v>6.87</v>
+      </c>
       <c r="AC33" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3508,22 +4081,25 @@
       <c r="AG33">
         <v>4.600451469421387</v>
       </c>
-      <c r="AH33" t="s">
-        <v>123</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301316</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-1.98</v>
@@ -3541,7 +4117,7 @@
         <v>117513.92</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3582,8 +4158,23 @@
       <c r="W34">
         <v>0.18</v>
       </c>
+      <c r="X34">
+        <v>-8.789999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>64.56</v>
+      </c>
+      <c r="Z34">
+        <v>1.1</v>
+      </c>
       <c r="AC34" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3591,22 +4182,25 @@
       <c r="AG34">
         <v>0.9401571750640869</v>
       </c>
-      <c r="AH34" t="s">
-        <v>123</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301413</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-5.24</v>
@@ -3624,7 +4218,7 @@
         <v>79927.58</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3665,8 +4259,23 @@
       <c r="W35">
         <v>-1.02</v>
       </c>
+      <c r="X35">
+        <v>-3.77</v>
+      </c>
+      <c r="Y35">
+        <v>132</v>
+      </c>
+      <c r="Z35">
+        <v>2.42</v>
+      </c>
       <c r="AC35" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3674,22 +4283,25 @@
       <c r="AG35">
         <v>8.192935943603516</v>
       </c>
-      <c r="AH35" t="s">
-        <v>123</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301488</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.46</v>
@@ -3707,7 +4319,7 @@
         <v>115545.32</v>
       </c>
       <c r="J36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3748,8 +4360,23 @@
       <c r="W36">
         <v>0.14</v>
       </c>
+      <c r="X36">
+        <v>-2.5</v>
+      </c>
+      <c r="Y36">
+        <v>139</v>
+      </c>
+      <c r="Z36">
+        <v>1.47</v>
+      </c>
       <c r="AC36" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3757,22 +4384,25 @@
       <c r="AG36">
         <v>6.54406213760376</v>
       </c>
-      <c r="AH36" t="s">
-        <v>123</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301489</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>4.05</v>
@@ -3790,7 +4420,7 @@
         <v>47431.62</v>
       </c>
       <c r="J37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K37">
         <v>25</v>
@@ -3831,8 +4461,23 @@
       <c r="W37">
         <v>0.22</v>
       </c>
+      <c r="X37">
+        <v>-15.29</v>
+      </c>
+      <c r="Y37">
+        <v>215.9</v>
+      </c>
+      <c r="Z37">
+        <v>4.05</v>
+      </c>
       <c r="AC37" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3840,22 +4485,25 @@
       <c r="AG37">
         <v>6.126467227935791</v>
       </c>
-      <c r="AH37" t="s">
-        <v>123</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688062</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -3873,7 +4521,7 @@
         <v>73963.58</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K38">
         <v>7</v>
@@ -3914,8 +4562,23 @@
       <c r="W38">
         <v>-0.67</v>
       </c>
+      <c r="X38">
+        <v>-9.59</v>
+      </c>
+      <c r="Y38">
+        <v>63</v>
+      </c>
+      <c r="Z38">
+        <v>7.55</v>
+      </c>
       <c r="AC38" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3923,22 +4586,25 @@
       <c r="AG38">
         <v>3.036415576934814</v>
       </c>
-      <c r="AH38" t="s">
-        <v>123</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688066</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.06</v>
@@ -3956,7 +4622,7 @@
         <v>62504.82</v>
       </c>
       <c r="J39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -3997,8 +4663,23 @@
       <c r="W39">
         <v>-0.06</v>
       </c>
+      <c r="X39">
+        <v>-8.27</v>
+      </c>
+      <c r="Y39">
+        <v>34.4</v>
+      </c>
+      <c r="Z39">
+        <v>-1.83</v>
+      </c>
       <c r="AC39" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4006,22 +4687,25 @@
       <c r="AG39">
         <v>1.89092743396759</v>
       </c>
-      <c r="AH39" t="s">
-        <v>123</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688110</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>7.21</v>
@@ -4039,7 +4723,7 @@
         <v>505297.87</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4080,8 +4764,23 @@
       <c r="W40">
         <v>-0.58</v>
       </c>
+      <c r="X40">
+        <v>-17.04</v>
+      </c>
+      <c r="Y40">
+        <v>119.38</v>
+      </c>
+      <c r="Z40">
+        <v>-5.64</v>
+      </c>
       <c r="AC40" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4089,22 +4788,25 @@
       <c r="AG40">
         <v>-22.6273307800293</v>
       </c>
-      <c r="AH40" t="s">
-        <v>123</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688135</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2.81</v>
@@ -4122,7 +4824,7 @@
         <v>78713.11</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4163,8 +4865,23 @@
       <c r="W41">
         <v>-0.1</v>
       </c>
+      <c r="X41">
+        <v>-10.76</v>
+      </c>
+      <c r="Y41">
+        <v>29.8</v>
+      </c>
+      <c r="Z41">
+        <v>-4.15</v>
+      </c>
       <c r="AC41" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4172,22 +4889,25 @@
       <c r="AG41">
         <v>0.5373263359069824</v>
       </c>
-      <c r="AH41" t="s">
-        <v>123</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688141</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>5.97</v>
@@ -4205,7 +4925,7 @@
         <v>96224.19</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4246,8 +4966,23 @@
       <c r="W42">
         <v>-0.29</v>
       </c>
+      <c r="X42">
+        <v>-0.71</v>
+      </c>
+      <c r="Y42">
+        <v>43.62</v>
+      </c>
+      <c r="Z42">
+        <v>2.37</v>
+      </c>
       <c r="AC42" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4255,22 +4990,25 @@
       <c r="AG42">
         <v>-11.35478687286377</v>
       </c>
-      <c r="AH42" t="s">
-        <v>123</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688155</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-1.93</v>
@@ -4288,7 +5026,7 @@
         <v>27595.22</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4329,8 +5067,23 @@
       <c r="W43">
         <v>-0.11</v>
       </c>
+      <c r="X43">
+        <v>-0.42</v>
+      </c>
+      <c r="Y43">
+        <v>68.86</v>
+      </c>
+      <c r="Z43">
+        <v>7.8</v>
+      </c>
       <c r="AC43" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4338,22 +5091,25 @@
       <c r="AG43">
         <v>0.6555590033531189</v>
       </c>
-      <c r="AH43" t="s">
-        <v>123</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688195</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0.6</v>
@@ -4371,7 +5127,7 @@
         <v>99010.39999999999</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K44">
         <v>13</v>
@@ -4412,8 +5168,23 @@
       <c r="W44">
         <v>-0.18</v>
       </c>
+      <c r="X44">
+        <v>-8.02</v>
+      </c>
+      <c r="Y44">
+        <v>95.08</v>
+      </c>
+      <c r="Z44">
+        <v>12.52</v>
+      </c>
       <c r="AC44" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4421,22 +5192,25 @@
       <c r="AG44">
         <v>8.66877269744873</v>
       </c>
-      <c r="AH44" t="s">
-        <v>123</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688222</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>8.93</v>
@@ -4454,7 +5228,7 @@
         <v>78111.74000000001</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -4495,8 +5269,23 @@
       <c r="W45">
         <v>0.4</v>
       </c>
+      <c r="X45">
+        <v>-3.82</v>
+      </c>
+      <c r="Y45">
+        <v>30.28</v>
+      </c>
+      <c r="Z45">
+        <v>9.789999999999999</v>
+      </c>
       <c r="AC45" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4504,22 +5293,25 @@
       <c r="AG45">
         <v>2.034390687942505</v>
       </c>
-      <c r="AH45" t="s">
-        <v>123</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688228</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.26</v>
@@ -4537,7 +5329,7 @@
         <v>48169.83</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4578,8 +5370,23 @@
       <c r="W46">
         <v>-0.13</v>
       </c>
+      <c r="X46">
+        <v>-12.58</v>
+      </c>
+      <c r="Y46">
+        <v>128</v>
+      </c>
+      <c r="Z46">
+        <v>-1.54</v>
+      </c>
       <c r="AC46" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4587,22 +5394,25 @@
       <c r="AG46">
         <v>3.568238258361816</v>
       </c>
-      <c r="AH46" t="s">
-        <v>123</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688286</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>4.19</v>
@@ -4620,7 +5430,7 @@
         <v>46223.66</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4661,8 +5471,23 @@
       <c r="W47">
         <v>0.15</v>
       </c>
+      <c r="X47">
+        <v>-10.92</v>
+      </c>
+      <c r="Y47">
+        <v>106.59</v>
+      </c>
+      <c r="Z47">
+        <v>-0.14</v>
+      </c>
       <c r="AC47" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4670,22 +5495,25 @@
       <c r="AG47">
         <v>3.711002826690674</v>
       </c>
-      <c r="AH47" t="s">
-        <v>123</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688299</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.56</v>
@@ -4703,7 +5531,7 @@
         <v>67014.88</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4744,8 +5572,23 @@
       <c r="W48">
         <v>0.02</v>
       </c>
+      <c r="X48">
+        <v>-4.18</v>
+      </c>
+      <c r="Y48">
+        <v>25.89</v>
+      </c>
+      <c r="Z48">
+        <v>5.37</v>
+      </c>
       <c r="AC48" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4753,22 +5596,25 @@
       <c r="AG48">
         <v>1.618068099021912</v>
       </c>
-      <c r="AH48" t="s">
-        <v>123</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688313</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.72</v>
@@ -4786,7 +5632,7 @@
         <v>206053.76</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K49">
         <v>17</v>
@@ -4827,8 +5673,23 @@
       <c r="W49">
         <v>0.06</v>
       </c>
+      <c r="X49">
+        <v>-13.98</v>
+      </c>
+      <c r="Y49">
+        <v>85.84</v>
+      </c>
+      <c r="Z49">
+        <v>6.19</v>
+      </c>
       <c r="AC49" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4836,22 +5697,25 @@
       <c r="AG49">
         <v>3.491911649703979</v>
       </c>
-      <c r="AH49" t="s">
-        <v>123</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688331</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.67</v>
@@ -4869,7 +5733,7 @@
         <v>46076.15</v>
       </c>
       <c r="J50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4910,8 +5774,23 @@
       <c r="W50">
         <v>0.31</v>
       </c>
+      <c r="X50">
+        <v>-4.49</v>
+      </c>
+      <c r="Y50">
+        <v>96.19</v>
+      </c>
+      <c r="Z50">
+        <v>4.36</v>
+      </c>
       <c r="AC50" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4919,22 +5798,25 @@
       <c r="AG50">
         <v>8.306548118591309</v>
       </c>
-      <c r="AH50" t="s">
-        <v>123</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688347</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>2.25</v>
@@ -4952,7 +5834,7 @@
         <v>239929.86</v>
       </c>
       <c r="J51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K51">
         <v>13</v>
@@ -4993,8 +5875,23 @@
       <c r="W51">
         <v>0.02</v>
       </c>
+      <c r="X51">
+        <v>-10.96</v>
+      </c>
+      <c r="Y51">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="Z51">
+        <v>-2.71</v>
+      </c>
       <c r="AC51" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5002,22 +5899,25 @@
       <c r="AG51">
         <v>2.172451257705688</v>
       </c>
-      <c r="AH51" t="s">
-        <v>123</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688388</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-3.44</v>
@@ -5035,7 +5935,7 @@
         <v>82978.77</v>
       </c>
       <c r="J52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5076,8 +5976,23 @@
       <c r="W52">
         <v>-0.08</v>
       </c>
+      <c r="X52">
+        <v>-6.71</v>
+      </c>
+      <c r="Y52">
+        <v>34</v>
+      </c>
+      <c r="Z52">
+        <v>13.11</v>
+      </c>
       <c r="AC52" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5085,22 +6000,25 @@
       <c r="AG52">
         <v>7.646820068359375</v>
       </c>
-      <c r="AH52" t="s">
-        <v>123</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688400</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.1</v>
@@ -5118,7 +6036,7 @@
         <v>125878.95</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5159,8 +6077,23 @@
       <c r="W53">
         <v>0.19</v>
       </c>
+      <c r="X53">
+        <v>-14.61</v>
+      </c>
+      <c r="Y53">
+        <v>41.37</v>
+      </c>
+      <c r="Z53">
+        <v>-1.19</v>
+      </c>
       <c r="AC53" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5168,22 +6101,25 @@
       <c r="AG53">
         <v>7.937678337097168</v>
       </c>
-      <c r="AH53" t="s">
-        <v>123</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688498</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>9.720000000000001</v>
@@ -5201,7 +6137,7 @@
         <v>222868.12</v>
       </c>
       <c r="J54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K54">
         <v>17</v>
@@ -5242,8 +6178,23 @@
       <c r="W54">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X54">
+        <v>-8.73</v>
+      </c>
+      <c r="Y54">
+        <v>417.44</v>
+      </c>
+      <c r="Z54">
+        <v>8.09</v>
+      </c>
       <c r="AC54" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5251,22 +6202,25 @@
       <c r="AG54">
         <v>0.4561822712421417</v>
       </c>
-      <c r="AH54" t="s">
-        <v>123</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688629</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>0.84</v>
@@ -5284,7 +6238,7 @@
         <v>108659.56</v>
       </c>
       <c r="J55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5325,8 +6279,23 @@
       <c r="W55">
         <v>-0.4</v>
       </c>
+      <c r="X55">
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>-0.27</v>
+      </c>
       <c r="AC55" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5334,22 +6303,25 @@
       <c r="AG55">
         <v>10.41825103759766</v>
       </c>
-      <c r="AH55" t="s">
-        <v>123</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688709</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>17.74</v>
@@ -5367,7 +6339,7 @@
         <v>137487.74</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K56">
         <v>9</v>
@@ -5408,8 +6380,23 @@
       <c r="W56">
         <v>0.65</v>
       </c>
+      <c r="X56">
+        <v>-10.02</v>
+      </c>
+      <c r="Y56">
+        <v>57.5</v>
+      </c>
+      <c r="Z56">
+        <v>-1.32</v>
+      </c>
       <c r="AC56" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5417,8 +6404,11 @@
       <c r="AG56">
         <v>8.524007797241211</v>
       </c>
-      <c r="AH56" t="s">
-        <v>124</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
